--- a/outputs-HGR-r202-archive3/g__Pediococcus.xlsx
+++ b/outputs-HGR-r202-archive3/g__Pediococcus.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -493,18 +493,18 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +516,18 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +539,18 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -562,18 +562,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -585,18 +585,18 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -608,18 +608,18 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -631,18 +631,18 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -654,18 +654,18 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -677,18 +677,18 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -700,18 +700,18 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -723,18 +723,18 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -746,18 +746,18 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -769,18 +769,18 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -792,18 +792,18 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -815,18 +815,18 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -838,18 +838,18 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -861,18 +861,18 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -884,18 +884,18 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -907,18 +907,18 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
